--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1124164.982523489</v>
+        <v>1121729.345599783</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673443</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>74.322627841559</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>104.7906844222649</v>
       </c>
       <c r="U4" t="n">
-        <v>107.3073333015752</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>272.2741925178131</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>133.6650819731273</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>23.419281462207</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>354.6674978078462</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>148.439904187297</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,16 +1294,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.380068175848154</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>322.7690354757303</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>318.3119367311458</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238041</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035266</v>
+        <v>9.753166794035295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>57.68764556948278</v>
+        <v>30.01723633148607</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146347</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.551749875468</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.905530700185</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3.824156177168292</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>146.1562015105488</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1822,7 +1822,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>13.79222725775231</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>28.68281686619596</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695436</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>61.66004604094956</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>30.65104903283424</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>47.88058113793264</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>27.02919805176126</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189114</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085811982</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428327</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881291</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>54.2978517415894</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788181031</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>64.35711883683371</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678029</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>75.00788511618033</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2051.278283189673</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
         <v>1976.204921733553</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>2051.278283189673</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080122</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.773976541745</v>
+        <v>2246.382089998688</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>2077.445907070781</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>1927.329267658445</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>1779.416174076052</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>2938.240304009418</v>
       </c>
       <c r="U4" t="n">
-        <v>1507.30622965638</v>
+        <v>2938.240304009418</v>
       </c>
       <c r="V4" t="n">
-        <v>1252.621741450493</v>
+        <v>2938.240304009418</v>
       </c>
       <c r="W4" t="n">
-        <v>963.2045714135322</v>
+        <v>2648.823133972458</v>
       </c>
       <c r="X4" t="n">
-        <v>735.2150205155149</v>
+        <v>2648.823133972458</v>
       </c>
       <c r="Y4" t="n">
-        <v>514.4224413719847</v>
+        <v>2428.030554828928</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2065.110222835252</v>
+        <v>1892.963660013483</v>
       </c>
       <c r="C5" t="n">
-        <v>1696.14770589484</v>
+        <v>1892.963660013483</v>
       </c>
       <c r="D5" t="n">
-        <v>1337.882007288089</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>952.0937546898451</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>541.1078499002376</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136265</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2841.849394875185</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2451.710062899373</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959802</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959802</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959802</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1813.808250985206</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1592.041635554732</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1302.938768680375</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.254280474488</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>758.8371104375277</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>530.8475595395104</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959802</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.807527238424</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1221.845010298012</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>863.5793116912616</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>477.7910590930174</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3065.37585597738</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2734.312968633809</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2381.544313363695</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X8" t="n">
-        <v>2008.078555102614</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="9">
@@ -4875,13 +4875,13 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1920.850034779555</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1699.083419349081</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1409.980552474725</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1155.296064268838</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1898.596633253256</v>
+        <v>1634.224011468276</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.634116312845</v>
+        <v>1312.696802648937</v>
       </c>
       <c r="D11" t="n">
-        <v>1171.368417706094</v>
+        <v>1312.696802648937</v>
       </c>
       <c r="E11" t="n">
-        <v>785.58016510785</v>
+        <v>926.9085500506928</v>
       </c>
       <c r="F11" t="n">
-        <v>785.58016510785</v>
+        <v>515.9226452610853</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374971</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469177</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386829</v>
+        <v>308.7333971386827</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420314</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301224</v>
@@ -5051,40 +5051,40 @@
         <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
         <v>3070.226377687099</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.04835985628</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3835.937563882237</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234589</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234589</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.553311234589</v>
+        <v>3721.751200750367</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.062594867197</v>
+        <v>3468.260484382974</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.999707523627</v>
+        <v>3137.197597039404</v>
       </c>
       <c r="W11" t="n">
-        <v>2988.231052253512</v>
+        <v>2784.428941769289</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.765293992432</v>
+        <v>2410.96318350821</v>
       </c>
       <c r="Y11" t="n">
-        <v>2224.625962016621</v>
+        <v>2020.823851532398</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5115,28 +5115,28 @@
         <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469177</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831291</v>
+        <v>477.1621322376497</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104384</v>
+        <v>480.1171086843912</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754328</v>
+        <v>993.4308829282801</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.649813467297</v>
+        <v>1534.739190279346</v>
       </c>
       <c r="O12" t="n">
-        <v>2198.621366333046</v>
+        <v>2007.710743145095</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2367.979045985249</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826858</v>
+        <v>424.6576373893837</v>
       </c>
       <c r="C13" t="n">
-        <v>283.6713627826857</v>
+        <v>255.7214544614768</v>
       </c>
       <c r="D13" t="n">
         <v>225.4010137226021</v>
@@ -5185,64 +5185,64 @@
         <v>225.4010137226021</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
         <v>139.0818334600398</v>
       </c>
       <c r="K13" t="n">
-        <v>368.45504734577</v>
+        <v>368.4550473457698</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888912</v>
+        <v>717.500225288891</v>
       </c>
       <c r="M13" t="n">
         <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
         <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551103</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906986</v>
+        <v>1888.302075370154</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457032</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897321</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691434</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544729</v>
+        <v>834.2956531176408</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564556</v>
+        <v>606.3061022196234</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129255</v>
+        <v>606.3061022196234</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5279,19 +5279,19 @@
         <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128776</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021283</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N15" t="n">
         <v>2005.899154770046</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635724</v>
+        <v>784.281141710698</v>
       </c>
       <c r="C16" t="n">
-        <v>561.9183350635724</v>
+        <v>615.3449587827911</v>
       </c>
       <c r="D16" t="n">
-        <v>411.8016956512365</v>
+        <v>465.2283193704552</v>
       </c>
       <c r="E16" t="n">
-        <v>263.8886020688435</v>
+        <v>317.3152257880622</v>
       </c>
       <c r="F16" t="n">
-        <v>263.8886020688434</v>
+        <v>317.3152257880622</v>
       </c>
       <c r="G16" t="n">
-        <v>96.67440724342227</v>
+        <v>317.3152257880622</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
@@ -5437,16 +5437,16 @@
         <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2212.883902590337</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1993.205120304719</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1704.128906619446</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1704.128906619446</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.34892993536</v>
+        <v>1414.711736582485</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373423</v>
+        <v>1186.722185684468</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938121</v>
+        <v>965.9296065409377</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>382.418441703684</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,10 +5677,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2350.944837543576</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2131.343372566517</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1842.268145910715</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1587.583657704828</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.166487667867</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1070.17693676985</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>849.3843576263199</v>
+        <v>945.4026036630042</v>
       </c>
     </row>
     <row r="20">
@@ -5741,25 +5741,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,10 +5768,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273902</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1320.560501433898</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>702.4944101284088</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>533.558227200502</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925218</v>
+        <v>383.4415877881663</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036841</v>
+        <v>235.5284942057733</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057734</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057734</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1332.925005000196</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>884.1428749586486</v>
       </c>
     </row>
     <row r="23">
@@ -5981,31 +5981,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,19 +6072,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400708</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121639</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121639</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138406</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703105</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6458,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121658</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270462</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188002</v>
+        <v>984.5772922261139</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908933</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908933</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908933</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908934</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038358</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797758</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327548</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290587</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925701</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490399</v>
+        <v>984.5772922261139</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121644</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270444</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7099,10 +7099,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2314.910189088386</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2095.308724111327</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1262.131839212677</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>813.3497091711298</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708867</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,46 +7336,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011264</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7661,10 +7661,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F46" t="n">
-        <v>402.724593490894</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.50206557031</v>
       </c>
     </row>
   </sheetData>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.9648061877503</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>46.96095503986174</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238035</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114107</v>
+        <v>97.97552699114111</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>90.92782744872957</v>
+        <v>118.5982366867263</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>89.71507747034043</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146344</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728957</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613728917</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6298336147856</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>35.18228684791019</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>166.039752924185</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>152.3434691354486</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>84.7739166056196</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>186.754401294454</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>119.3662399606952</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>118.39184997117</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>62.35543909864991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.494940240508</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194062</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>112.9489693570384</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194066</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219421</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>116.6691671648109</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>137.2878198583892</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194208</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877629.8203187203</v>
+        <v>877629.82031872</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959986.1899709916</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709915</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959986.1899709912</v>
+        <v>959986.1899709913</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>959986.1899709913</v>
+        <v>959986.1899709912</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876632</v>
+        <v>423807.2415876631</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918678</v>
+        <v>461540.8686918679</v>
       </c>
       <c r="G2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="H2" t="n">
-        <v>464109.2948217536</v>
-      </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
@@ -26341,16 +26341,16 @@
         <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
+        <v>464109.2948217538</v>
+      </c>
+      <c r="M2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="M2" t="n">
-        <v>464109.2948217536</v>
-      </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217539</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185153</v>
+        <v>143114.1392185147</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051387</v>
+        <v>166521.3471051392</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.2362355788</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115324</v>
+        <v>37377.32855115301</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848937</v>
+        <v>43782.40655848948</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316936</v>
       </c>
       <c r="E4" t="n">
         <v>12287.79922451208</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214705</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1056153.623570192</v>
       </c>
       <c r="C6" t="n">
-        <v>272591.1221574005</v>
+        <v>272591.1221574002</v>
       </c>
       <c r="D6" t="n">
-        <v>272591.1221574005</v>
+        <v>272591.1221574006</v>
       </c>
       <c r="E6" t="n">
-        <v>182311.5809824888</v>
+        <v>182101.6167386446</v>
       </c>
       <c r="F6" t="n">
-        <v>182497.0055122979</v>
+        <v>182451.1005167318</v>
       </c>
       <c r="G6" t="n">
-        <v>339432.6085804497</v>
+        <v>339397.8706550139</v>
       </c>
       <c r="H6" t="n">
-        <v>350599.8448160285</v>
+        <v>350565.1068905925</v>
       </c>
       <c r="I6" t="n">
-        <v>350599.8448160284</v>
+        <v>350565.1068905929</v>
       </c>
       <c r="J6" t="n">
-        <v>133068.6424187509</v>
+        <v>133033.9044933153</v>
       </c>
       <c r="K6" t="n">
-        <v>350599.8448160284</v>
+        <v>350565.1068905927</v>
       </c>
       <c r="L6" t="n">
-        <v>350599.8448160285</v>
+        <v>350565.1068905928</v>
       </c>
       <c r="M6" t="n">
-        <v>313222.5162648751</v>
+        <v>313187.7783394397</v>
       </c>
       <c r="N6" t="n">
-        <v>306817.438257539</v>
+        <v>306782.7003321034</v>
       </c>
       <c r="O6" t="n">
-        <v>347576.5468388037</v>
+        <v>347541.8089133682</v>
       </c>
       <c r="P6" t="n">
-        <v>350599.8448160285</v>
+        <v>350565.1068905927</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086472</v>
+        <v>981.3883278086467</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,22 +26960,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012571</v>
+        <v>122.3935669012567</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218304</v>
+        <v>145.8707812218308</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063546</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063546</v>
+        <v>149.9868724063539</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173602</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>290.9502639294486</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>114.7582648539043</v>
       </c>
       <c r="U4" t="n">
-        <v>178.9045049040377</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>82.40884910286985</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>277.2566436803262</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>166.3497438692349</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>52.20854793386525</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>102.5552677716049</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,16 +28059,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>183.3889571555937</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-4.627454198719045e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.534772309241817e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485647</v>
+        <v>4.873046301485645</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508989</v>
+        <v>49.90608543508987</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.5937135307176</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726053</v>
+        <v>619.8697634726051</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216968</v>
+        <v>769.0032542216965</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857421</v>
+        <v>855.6642913857418</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898383</v>
+        <v>869.509834189838</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294404</v>
+        <v>821.05348002944</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615134</v>
+        <v>700.750149461513</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895584</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.3898437041188515</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596473</v>
+        <v>89.7692132059647</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783039</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202552</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256412</v>
+        <v>141.5392044735524</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845326</v>
+        <v>660.6327957845324</v>
       </c>
       <c r="N12" t="n">
-        <v>565.8741319954241</v>
+        <v>678.1177801147134</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431806</v>
+        <v>620.3452877431804</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205468</v>
+        <v>497.8817840205466</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071843</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697584</v>
+        <v>48.42963285697582</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
         <v>0.1715335284190409</v>
@@ -31911,46 +31911,46 @@
         <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>65.73539745691785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619739</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>342.6467528263706</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>334.4993788973091</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570605</v>
+        <v>98.28514988570602</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826899</v>
+        <v>9.339672552826896</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,10 +32084,10 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>467.4901056247181</v>
       </c>
       <c r="N15" t="n">
-        <v>487.0792071670518</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,22 +32792,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,31 +33968,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276248</v>
+        <v>399.7799124276245</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584694</v>
+        <v>625.3180581584691</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932474</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077536</v>
+        <v>590.9552686077533</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062438</v>
+        <v>469.5171537062435</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151089</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156587</v>
+        <v>90.52095692156576</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458962</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>427.563441845767</v>
+        <v>2.984824693678237</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>518.4987618625141</v>
       </c>
       <c r="N12" t="n">
-        <v>434.5324199120909</v>
+        <v>546.7760680313801</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987362</v>
+        <v>477.749043298736</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062165</v>
+        <v>363.9073766062164</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670183</v>
+        <v>61.18259316701824</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>382.2306297882112</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765378</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998349</v>
+        <v>96.87566713998341</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>325.3560717026998</v>
       </c>
       <c r="N15" t="n">
-        <v>355.7374950837184</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010467</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096366</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>23.94570355317166</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
